--- a/scripts/modeltools/exports/Scenario_Results_v2.xlsx
+++ b/scripts/modeltools/exports/Scenario_Results_v2.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\00065525\Github\CDM\scripts\modeltools\exports\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Github\CDM\scripts\modeltools\exports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{246AAD52-63BE-4DBE-89CC-015DE55267E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AB718105-107C-43D2-99B7-2FF2B3DDDF7D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -576,12 +575,6 @@
     <t>No SE</t>
   </si>
   <si>
-    <t>3A</t>
-  </si>
-  <si>
-    <t>3B</t>
-  </si>
-  <si>
     <t>Life stage: turion viability</t>
   </si>
   <si>
@@ -651,16 +644,22 @@
     <t>% of days where Salt Creek flow is &gt;2 ML/day and average CSL is &gt;+0.8 m AHD</t>
   </si>
   <si>
-    <t>mean concentration (mg/L) between 1 April to 30 September.</t>
-  </si>
-  <si>
-    <t>mean concentration (mg/L) between 1 October to 31 March.</t>
+    <t>Designed</t>
+  </si>
+  <si>
+    <t>No Barrage</t>
+  </si>
+  <si>
+    <t>mean concentration (mg/L) between 1 April - 30 September.</t>
+  </si>
+  <si>
+    <t>mean concentration (mg/L) between 1 October - 31 March.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1191,12 +1190,13 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3323FCED-6F7F-45C8-A947-57EDCFA88034}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M109"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1005" activePane="bottomLeft"/>
-      <selection pane="bottomLeft" activeCell="L71" sqref="L71:L74"/>
+      <pane ySplit="1005" topLeftCell="A22" activePane="bottomLeft"/>
+      <selection activeCell="L2" sqref="L2"/>
+      <selection pane="bottomLeft" activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="44.1" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1245,33 +1245,33 @@
         <v>144</v>
       </c>
       <c r="K1" s="9" t="s">
-        <v>145</v>
+        <v>168</v>
       </c>
       <c r="L1" s="10" t="s">
-        <v>146</v>
+        <v>169</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B2" s="11" t="s">
         <v>16</v>
       </c>
       <c r="C2" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="E2" s="11" t="s">
         <v>147</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>148</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>149</v>
       </c>
       <c r="F2" s="11" t="s">
         <v>12</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H2" s="12"/>
       <c r="I2" s="12"/>
@@ -1282,25 +1282,25 @@
     </row>
     <row r="3" spans="1:13" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B3" s="13" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="E3" s="13" t="s">
         <v>147</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>148</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>149</v>
       </c>
       <c r="F3" s="13" t="s">
         <v>71</v>
       </c>
       <c r="G3" s="13" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H3" s="12"/>
       <c r="I3" s="12"/>
@@ -1311,16 +1311,16 @@
     </row>
     <row r="4" spans="1:13" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B4" s="11" t="s">
         <v>16</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E4" s="11" t="s">
         <v>19</v>
@@ -1329,7 +1329,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H4" s="12"/>
       <c r="I4" s="12"/>
@@ -1340,16 +1340,16 @@
     </row>
     <row r="5" spans="1:13" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B5" s="13" t="s">
         <v>16</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E5" s="13" t="s">
         <v>19</v>
@@ -1358,7 +1358,7 @@
         <v>71</v>
       </c>
       <c r="G5" s="13" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H5" s="12"/>
       <c r="I5" s="12"/>
@@ -1369,16 +1369,16 @@
     </row>
     <row r="6" spans="1:13" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B6" s="11" t="s">
         <v>16</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E6" s="11" t="s">
         <v>19</v>
@@ -1387,7 +1387,7 @@
         <v>12</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H6" s="12"/>
       <c r="I6" s="12"/>
@@ -1398,16 +1398,16 @@
     </row>
     <row r="7" spans="1:13" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B7" s="13" t="s">
         <v>16</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E7" s="13" t="s">
         <v>19</v>
@@ -1416,7 +1416,7 @@
         <v>71</v>
       </c>
       <c r="G7" s="13" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H7" s="12"/>
       <c r="I7" s="12"/>
@@ -1427,16 +1427,16 @@
     </row>
     <row r="8" spans="1:13" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B8" s="11" t="s">
         <v>16</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E8" s="11" t="s">
         <v>21</v>
@@ -1445,7 +1445,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H8" s="12"/>
       <c r="I8" s="12"/>
@@ -1456,16 +1456,16 @@
     </row>
     <row r="9" spans="1:13" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B9" s="13" t="s">
         <v>16</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E9" s="13" t="s">
         <v>21</v>
@@ -1474,7 +1474,7 @@
         <v>71</v>
       </c>
       <c r="G9" s="13" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H9" s="12"/>
       <c r="I9" s="12"/>
@@ -1485,16 +1485,16 @@
     </row>
     <row r="10" spans="1:13" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B10" s="11" t="s">
         <v>16</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E10" s="11" t="s">
         <v>22</v>
@@ -1503,7 +1503,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H10" s="12"/>
       <c r="I10" s="12"/>
@@ -1514,16 +1514,16 @@
     </row>
     <row r="11" spans="1:13" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B11" s="13" t="s">
         <v>16</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E11" s="13" t="s">
         <v>22</v>
@@ -1532,7 +1532,7 @@
         <v>71</v>
       </c>
       <c r="G11" s="13" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H11" s="12"/>
       <c r="I11" s="12"/>
@@ -1543,16 +1543,16 @@
     </row>
     <row r="12" spans="1:13" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B12" s="11" t="s">
         <v>16</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E12" s="11" t="s">
         <v>22</v>
@@ -1561,7 +1561,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H12" s="12"/>
       <c r="I12" s="12"/>
@@ -1572,16 +1572,16 @@
     </row>
     <row r="13" spans="1:13" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B13" s="13" t="s">
         <v>16</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E13" s="13" t="s">
         <v>22</v>
@@ -1590,7 +1590,7 @@
         <v>71</v>
       </c>
       <c r="G13" s="13" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H13" s="12"/>
       <c r="I13" s="12"/>
@@ -1601,16 +1601,16 @@
     </row>
     <row r="14" spans="1:13" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B14" s="11" t="s">
         <v>16</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E14" s="11" t="s">
         <v>22</v>
@@ -1619,7 +1619,7 @@
         <v>12</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H14" s="12"/>
       <c r="I14" s="12"/>
@@ -1630,16 +1630,16 @@
     </row>
     <row r="15" spans="1:13" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B15" s="13" t="s">
         <v>16</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E15" s="13" t="s">
         <v>22</v>
@@ -1648,7 +1648,7 @@
         <v>71</v>
       </c>
       <c r="G15" s="13" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H15" s="12"/>
       <c r="I15" s="12"/>
@@ -1659,25 +1659,25 @@
     </row>
     <row r="16" spans="1:13" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B16" s="11" t="s">
         <v>16</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F16" s="11" t="s">
         <v>71</v>
       </c>
       <c r="G16" s="11" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H16" s="12"/>
       <c r="I16" s="12"/>
@@ -1688,25 +1688,25 @@
     </row>
     <row r="17" spans="1:13" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B17" s="13" t="s">
         <v>16</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E17" s="13" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F17" s="13" t="s">
         <v>12</v>
       </c>
       <c r="G17" s="13" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H17" s="12"/>
       <c r="I17" s="12"/>
@@ -1717,25 +1717,25 @@
     </row>
     <row r="18" spans="1:13" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B18" s="13" t="s">
         <v>73</v>
       </c>
       <c r="C18" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="E18" s="13" t="s">
         <v>160</v>
-      </c>
-      <c r="D18" s="13" t="s">
-        <v>161</v>
-      </c>
-      <c r="E18" s="13" t="s">
-        <v>162</v>
       </c>
       <c r="F18" s="13" t="s">
         <v>12</v>
       </c>
       <c r="G18" s="13" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H18" s="12"/>
       <c r="I18" s="12"/>
@@ -1746,25 +1746,25 @@
     </row>
     <row r="19" spans="1:13" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B19" s="11" t="s">
         <v>73</v>
       </c>
       <c r="C19" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="E19" s="11" t="s">
         <v>160</v>
-      </c>
-      <c r="D19" s="11" t="s">
-        <v>161</v>
-      </c>
-      <c r="E19" s="11" t="s">
-        <v>162</v>
       </c>
       <c r="F19" s="11" t="s">
         <v>71</v>
       </c>
       <c r="G19" s="11" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H19" s="12"/>
       <c r="I19" s="12"/>
@@ -1775,25 +1775,25 @@
     </row>
     <row r="20" spans="1:13" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B20" s="13" t="s">
         <v>73</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D20" s="13" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E20" s="13" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F20" s="13" t="s">
         <v>12</v>
       </c>
       <c r="G20" s="13" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H20" s="12"/>
       <c r="I20" s="12"/>
@@ -1804,25 +1804,25 @@
     </row>
     <row r="21" spans="1:13" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B21" s="11" t="s">
         <v>73</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F21" s="11" t="s">
         <v>71</v>
       </c>
       <c r="G21" s="11" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H21" s="12"/>
       <c r="I21" s="12"/>
@@ -3449,7 +3449,7 @@
         <v>71</v>
       </c>
       <c r="G71" s="15" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="H71">
         <v>82.5137</v>
@@ -3487,7 +3487,7 @@
         <v>71</v>
       </c>
       <c r="G72" s="15" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="H72">
         <v>0</v>
@@ -3525,7 +3525,7 @@
         <v>71</v>
       </c>
       <c r="G73" s="14" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H73">
         <v>14.2857</v>
@@ -3563,7 +3563,7 @@
         <v>71</v>
       </c>
       <c r="G74" s="14" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="H74">
         <v>0</v>

--- a/scripts/modeltools/exports/Scenario_Results_v2.xlsx
+++ b/scripts/modeltools/exports/Scenario_Results_v2.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Github\CDM\scripts\modeltools\exports\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\00101765\AED Dropbox\Sherry Zhai\Github\CDM\scripts\modeltools\exports\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93C92037-0558-4A9A-84E1-C6EE09853CDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="25490" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,8 +33,71 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={C637A075-05D9-4559-9537-5FAA25CDCDE7}</author>
+    <author>tc={28EFDCD2-FA97-4124-98CD-71C7EC523D7A}</author>
+    <author>tc={A5DE712C-6630-4C71-8923-3FC20A62AD5D}</author>
+    <author>tc={E77BD020-021F-4B01-BB47-749FBEC208BF}</author>
+    <author>tc={4EBF7304-8A87-4138-889B-AB9F64B586BD}</author>
+    <author>tc={6C038FB1-C5D8-4323-AAE7-E88A79428080}</author>
+  </authors>
+  <commentList>
+    <comment ref="E4" authorId="0" shapeId="0" xr:uid="{C637A075-05D9-4559-9537-5FAA25CDCDE7}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Apr-Jun in Gen2 model</t>
+      </text>
+    </comment>
+    <comment ref="E6" authorId="1" shapeId="0" xr:uid="{28EFDCD2-FA97-4124-98CD-71C7EC523D7A}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Apr-Jun in Gen2 model</t>
+      </text>
+    </comment>
+    <comment ref="E10" authorId="2" shapeId="0" xr:uid="{A5DE712C-6630-4C71-8923-3FC20A62AD5D}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Sep-Dec in Gen2 model</t>
+      </text>
+    </comment>
+    <comment ref="E12" authorId="3" shapeId="0" xr:uid="{E77BD020-021F-4B01-BB47-749FBEC208BF}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Sep-Dec in Gen2 model</t>
+      </text>
+    </comment>
+    <comment ref="H14" authorId="4" shapeId="0" xr:uid="{4EBF7304-8A87-4138-889B-AB9F64B586BD}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    HSI for this stage is merged with flowering and not separately calculated</t>
+      </text>
+    </comment>
+    <comment ref="C16" authorId="5" shapeId="0" xr:uid="{6C038FB1-C5D8-4323-AAE7-E88A79428080}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    assuming this means sexual lifecycle? (Jun-Dec with precursor stages)</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="663" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="673" uniqueCount="173">
   <si>
     <t>Critical CPS</t>
   </si>
@@ -655,12 +719,15 @@
   <si>
     <t>mean concentration (mg/L) between 1 October - 31 March.</t>
   </si>
+  <si>
+    <t>NA</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -705,6 +772,13 @@
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="10">
@@ -820,7 +894,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -877,6 +951,9 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -892,6 +969,12 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Sherry Zhai" id="{9DDE3B3A-DB65-4212-91E8-FED7C8C543F1}" userId="S::00101765@uwa.edu.au::ed9ae36a-4646-412d-9c73-fcc141d4009d" providerId="AD"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1189,14 +1272,37 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="E4" dT="2022-06-28T03:02:33.12" personId="{9DDE3B3A-DB65-4212-91E8-FED7C8C543F1}" id="{C637A075-05D9-4559-9537-5FAA25CDCDE7}">
+    <text>Apr-Jun in Gen2 model</text>
+  </threadedComment>
+  <threadedComment ref="E6" dT="2022-06-28T03:02:40.36" personId="{9DDE3B3A-DB65-4212-91E8-FED7C8C543F1}" id="{28EFDCD2-FA97-4124-98CD-71C7EC523D7A}">
+    <text>Apr-Jun in Gen2 model</text>
+  </threadedComment>
+  <threadedComment ref="E10" dT="2022-06-28T03:01:35.49" personId="{9DDE3B3A-DB65-4212-91E8-FED7C8C543F1}" id="{A5DE712C-6630-4C71-8923-3FC20A62AD5D}">
+    <text>Sep-Dec in Gen2 model</text>
+  </threadedComment>
+  <threadedComment ref="E12" dT="2022-06-28T03:01:56.61" personId="{9DDE3B3A-DB65-4212-91E8-FED7C8C543F1}" id="{E77BD020-021F-4B01-BB47-749FBEC208BF}">
+    <text>Sep-Dec in Gen2 model</text>
+  </threadedComment>
+  <threadedComment ref="H14" dT="2022-06-28T02:56:46.16" personId="{9DDE3B3A-DB65-4212-91E8-FED7C8C543F1}" id="{4EBF7304-8A87-4138-889B-AB9F64B586BD}">
+    <text>HSI for this stage is merged with flowering and not separately calculated</text>
+  </threadedComment>
+  <threadedComment ref="C16" dT="2022-06-28T03:03:40.24" personId="{9DDE3B3A-DB65-4212-91E8-FED7C8C543F1}" id="{6C038FB1-C5D8-4323-AAE7-E88A79428080}">
+    <text>assuming this means sexual lifecycle? (Jun-Dec with precursor stages)</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M109"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1005" topLeftCell="A22" activePane="bottomLeft"/>
+      <pane ySplit="990" activePane="bottomLeft"/>
       <selection activeCell="L2" sqref="L2"/>
-      <selection pane="bottomLeft" activeCell="G28" sqref="G28"/>
+      <selection pane="bottomLeft" activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="44.1" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1273,11 +1379,21 @@
       <c r="G2" s="11" t="s">
         <v>148</v>
       </c>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
+      <c r="H2" s="12">
+        <v>83.6</v>
+      </c>
+      <c r="I2" s="12">
+        <v>83.59</v>
+      </c>
+      <c r="J2" s="12">
+        <v>83.6</v>
+      </c>
+      <c r="K2" s="12">
+        <v>83.6</v>
+      </c>
+      <c r="L2" s="12">
+        <v>83.51</v>
+      </c>
       <c r="M2" s="2"/>
     </row>
     <row r="3" spans="1:13" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1302,11 +1418,21 @@
       <c r="G3" s="13" t="s">
         <v>149</v>
       </c>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
+      <c r="H3" s="12">
+        <v>105.8</v>
+      </c>
+      <c r="I3" s="12">
+        <v>92.14</v>
+      </c>
+      <c r="J3" s="12">
+        <v>105.8</v>
+      </c>
+      <c r="K3" s="12">
+        <v>106.74</v>
+      </c>
+      <c r="L3" s="12">
+        <v>62.05</v>
+      </c>
       <c r="M3" s="2"/>
     </row>
     <row r="4" spans="1:13" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1331,11 +1457,21 @@
       <c r="G4" s="11" t="s">
         <v>148</v>
       </c>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="12"/>
+      <c r="H4" s="20">
+        <v>77.03</v>
+      </c>
+      <c r="I4" s="20">
+        <v>63.53</v>
+      </c>
+      <c r="J4" s="20">
+        <v>77.03</v>
+      </c>
+      <c r="K4" s="20">
+        <v>67.69</v>
+      </c>
+      <c r="L4" s="20">
+        <v>61.11</v>
+      </c>
       <c r="M4" s="2"/>
     </row>
     <row r="5" spans="1:13" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1360,11 +1496,21 @@
       <c r="G5" s="13" t="s">
         <v>149</v>
       </c>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="12"/>
+      <c r="H5" s="20">
+        <v>13.82</v>
+      </c>
+      <c r="I5" s="20">
+        <v>0.6</v>
+      </c>
+      <c r="J5" s="20">
+        <v>13.82</v>
+      </c>
+      <c r="K5" s="20">
+        <v>27.25</v>
+      </c>
+      <c r="L5" s="20">
+        <v>0.51</v>
+      </c>
       <c r="M5" s="2"/>
     </row>
     <row r="6" spans="1:13" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1389,11 +1535,21 @@
       <c r="G6" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
+      <c r="H6" s="20">
+        <v>39.61</v>
+      </c>
+      <c r="I6" s="20">
+        <v>43.87</v>
+      </c>
+      <c r="J6" s="20">
+        <v>39.61</v>
+      </c>
+      <c r="K6" s="20">
+        <v>10.77</v>
+      </c>
+      <c r="L6" s="20">
+        <v>44.03</v>
+      </c>
       <c r="M6" s="2"/>
     </row>
     <row r="7" spans="1:13" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1418,11 +1574,21 @@
       <c r="G7" s="13" t="s">
         <v>149</v>
       </c>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12"/>
+      <c r="H7" s="20">
+        <v>17.059999999999999</v>
+      </c>
+      <c r="I7" s="20">
+        <v>11.98</v>
+      </c>
+      <c r="J7" s="20">
+        <v>17.059999999999999</v>
+      </c>
+      <c r="K7" s="20">
+        <v>17.29</v>
+      </c>
+      <c r="L7" s="20">
+        <v>10.44</v>
+      </c>
       <c r="M7" s="2"/>
     </row>
     <row r="8" spans="1:13" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1447,11 +1613,21 @@
       <c r="G8" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="12"/>
+      <c r="H8" s="20">
+        <v>44.46</v>
+      </c>
+      <c r="I8" s="20">
+        <v>51.98</v>
+      </c>
+      <c r="J8" s="20">
+        <v>44.46</v>
+      </c>
+      <c r="K8" s="20">
+        <v>30.38</v>
+      </c>
+      <c r="L8" s="20">
+        <v>53.67</v>
+      </c>
       <c r="M8" s="2"/>
     </row>
     <row r="9" spans="1:13" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1476,11 +1652,21 @@
       <c r="G9" s="13" t="s">
         <v>149</v>
       </c>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="12"/>
-      <c r="L9" s="12"/>
+      <c r="H9" s="20">
+        <v>32.97</v>
+      </c>
+      <c r="I9" s="20">
+        <v>37.82</v>
+      </c>
+      <c r="J9" s="20">
+        <v>32.97</v>
+      </c>
+      <c r="K9" s="20">
+        <v>34.380000000000003</v>
+      </c>
+      <c r="L9" s="20">
+        <v>37</v>
+      </c>
       <c r="M9" s="2"/>
     </row>
     <row r="10" spans="1:13" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1505,11 +1691,21 @@
       <c r="G10" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12"/>
-      <c r="K10" s="12"/>
-      <c r="L10" s="12"/>
+      <c r="H10" s="20">
+        <v>11.28</v>
+      </c>
+      <c r="I10" s="20">
+        <v>10.07</v>
+      </c>
+      <c r="J10" s="20">
+        <v>11.28</v>
+      </c>
+      <c r="K10" s="20">
+        <v>8.02</v>
+      </c>
+      <c r="L10" s="20">
+        <v>9.4700000000000006</v>
+      </c>
       <c r="M10" s="2"/>
     </row>
     <row r="11" spans="1:13" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1534,11 +1730,21 @@
       <c r="G11" s="13" t="s">
         <v>149</v>
       </c>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="12"/>
-      <c r="K11" s="12"/>
-      <c r="L11" s="12"/>
+      <c r="H11" s="20">
+        <v>8.9</v>
+      </c>
+      <c r="I11" s="20">
+        <v>0.81</v>
+      </c>
+      <c r="J11" s="20">
+        <v>8.9</v>
+      </c>
+      <c r="K11" s="20">
+        <v>15.05</v>
+      </c>
+      <c r="L11" s="20">
+        <v>0.86</v>
+      </c>
       <c r="M11" s="2"/>
     </row>
     <row r="12" spans="1:13" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1563,11 +1769,21 @@
       <c r="G12" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="12"/>
-      <c r="K12" s="12"/>
-      <c r="L12" s="12"/>
+      <c r="H12" s="20">
+        <v>7.22</v>
+      </c>
+      <c r="I12" s="20">
+        <v>28.13</v>
+      </c>
+      <c r="J12" s="20">
+        <v>7.22</v>
+      </c>
+      <c r="K12" s="20">
+        <v>0.91</v>
+      </c>
+      <c r="L12" s="20">
+        <v>38.630000000000003</v>
+      </c>
       <c r="M12" s="2"/>
     </row>
     <row r="13" spans="1:13" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1592,11 +1808,21 @@
       <c r="G13" s="13" t="s">
         <v>149</v>
       </c>
-      <c r="H13" s="12"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="12"/>
-      <c r="K13" s="12"/>
-      <c r="L13" s="12"/>
+      <c r="H13" s="20">
+        <v>40.43</v>
+      </c>
+      <c r="I13" s="20">
+        <v>45</v>
+      </c>
+      <c r="J13" s="20">
+        <v>40.43</v>
+      </c>
+      <c r="K13" s="20">
+        <v>37.049999999999997</v>
+      </c>
+      <c r="L13" s="20">
+        <v>46.05</v>
+      </c>
       <c r="M13" s="2"/>
     </row>
     <row r="14" spans="1:13" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1621,11 +1847,21 @@
       <c r="G14" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="H14" s="12"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="12"/>
-      <c r="K14" s="12"/>
-      <c r="L14" s="12"/>
+      <c r="H14" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="I14" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="J14" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="K14" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="L14" s="12" t="s">
+        <v>172</v>
+      </c>
       <c r="M14" s="2"/>
     </row>
     <row r="15" spans="1:13" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1650,11 +1886,21 @@
       <c r="G15" s="13" t="s">
         <v>149</v>
       </c>
-      <c r="H15" s="12"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="12"/>
-      <c r="K15" s="12"/>
-      <c r="L15" s="12"/>
+      <c r="H15" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="I15" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="J15" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="K15" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="L15" s="12" t="s">
+        <v>172</v>
+      </c>
       <c r="M15" s="2"/>
     </row>
     <row r="16" spans="1:13" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1679,11 +1925,21 @@
       <c r="G16" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="H16" s="12"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="12"/>
-      <c r="K16" s="12"/>
-      <c r="L16" s="12"/>
+      <c r="H16" s="20">
+        <v>9.59</v>
+      </c>
+      <c r="I16" s="20">
+        <v>8.02</v>
+      </c>
+      <c r="J16" s="20">
+        <v>9.59</v>
+      </c>
+      <c r="K16" s="20">
+        <v>7.12</v>
+      </c>
+      <c r="L16" s="20">
+        <v>7.15</v>
+      </c>
       <c r="M16" s="2"/>
     </row>
     <row r="17" spans="1:13" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1708,11 +1964,21 @@
       <c r="G17" s="13" t="s">
         <v>149</v>
       </c>
-      <c r="H17" s="12"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="12"/>
-      <c r="K17" s="12"/>
-      <c r="L17" s="12"/>
+      <c r="H17" s="20">
+        <v>5.14</v>
+      </c>
+      <c r="I17" s="20">
+        <v>0</v>
+      </c>
+      <c r="J17" s="20">
+        <v>5.14</v>
+      </c>
+      <c r="K17" s="20">
+        <v>10.41</v>
+      </c>
+      <c r="L17" s="20">
+        <v>0</v>
+      </c>
       <c r="M17" s="2"/>
     </row>
     <row r="18" spans="1:13" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1737,11 +2003,21 @@
       <c r="G18" s="13" t="s">
         <v>149</v>
       </c>
-      <c r="H18" s="12"/>
-      <c r="I18" s="12"/>
-      <c r="J18" s="12"/>
-      <c r="K18" s="12"/>
-      <c r="L18" s="12"/>
+      <c r="H18" s="20">
+        <v>44.45</v>
+      </c>
+      <c r="I18" s="20">
+        <v>50.58</v>
+      </c>
+      <c r="J18" s="20">
+        <v>44.45</v>
+      </c>
+      <c r="K18" s="20">
+        <v>30.34</v>
+      </c>
+      <c r="L18" s="20">
+        <v>52.1</v>
+      </c>
       <c r="M18" s="2"/>
     </row>
     <row r="19" spans="1:13" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1766,11 +2042,21 @@
       <c r="G19" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="H19" s="12"/>
-      <c r="I19" s="12"/>
-      <c r="J19" s="12"/>
-      <c r="K19" s="12"/>
-      <c r="L19" s="12"/>
+      <c r="H19" s="20">
+        <v>13.97</v>
+      </c>
+      <c r="I19" s="20">
+        <v>7.9</v>
+      </c>
+      <c r="J19" s="20">
+        <v>13.97</v>
+      </c>
+      <c r="K19" s="20">
+        <v>17.97</v>
+      </c>
+      <c r="L19" s="20">
+        <v>6.97</v>
+      </c>
       <c r="M19" s="2"/>
     </row>
     <row r="20" spans="1:13" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1795,11 +2081,21 @@
       <c r="G20" s="13" t="s">
         <v>149</v>
       </c>
-      <c r="H20" s="12"/>
-      <c r="I20" s="12"/>
-      <c r="J20" s="12"/>
-      <c r="K20" s="12"/>
-      <c r="L20" s="12"/>
+      <c r="H20" s="20">
+        <v>6.99</v>
+      </c>
+      <c r="I20" s="20">
+        <v>24.59</v>
+      </c>
+      <c r="J20" s="20">
+        <v>6.99</v>
+      </c>
+      <c r="K20" s="20">
+        <v>0.91</v>
+      </c>
+      <c r="L20" s="20">
+        <v>32.79</v>
+      </c>
       <c r="M20" s="2"/>
     </row>
     <row r="21" spans="1:13" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1824,11 +2120,21 @@
       <c r="G21" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="H21" s="12"/>
-      <c r="I21" s="12"/>
-      <c r="J21" s="12"/>
-      <c r="K21" s="12"/>
-      <c r="L21" s="12"/>
+      <c r="H21" s="20">
+        <v>13.91</v>
+      </c>
+      <c r="I21" s="20">
+        <v>7.9</v>
+      </c>
+      <c r="J21" s="20">
+        <v>13.91</v>
+      </c>
+      <c r="K21" s="20">
+        <v>15.84</v>
+      </c>
+      <c r="L21" s="20">
+        <v>6.97</v>
+      </c>
       <c r="M21" s="2"/>
     </row>
     <row r="22" spans="1:13" ht="44.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4711,5 +5017,6 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/scripts/modeltools/exports/Scenario_Results_v2.xlsx
+++ b/scripts/modeltools/exports/Scenario_Results_v2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\00101765\AED Dropbox\Sherry Zhai\Github\CDM\scripts\modeltools\exports\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\00065525\Github\CDM\scripts\modeltools\exports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93C92037-0558-4A9A-84E1-C6EE09853CDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1061BF30-CBA5-44E8-B0E5-E9C5F1999FB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25490" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -483,9 +483,6 @@
     <t>Export 12</t>
   </si>
   <si>
-    <t>Maximum duration (days) of CSL lagoon-averaged mean-daily water levels (via CSL stations A4260633, A4261209 and A4261165) are &lt;+0.3 m AHD</t>
-  </si>
-  <si>
     <t>Export 13</t>
   </si>
   <si>
@@ -722,12 +719,15 @@
   <si>
     <t>NA</t>
   </si>
+  <si>
+    <t>Total (days) of CSL lagoon-averaged mean-daily water levels (via CSL stations A4260633, A4261209 and A4261165) are &lt;+0.3 m AHD</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -772,12 +772,6 @@
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -1300,9 +1294,9 @@
   <dimension ref="A1:M109"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="990" activePane="bottomLeft"/>
+      <pane ySplit="990" topLeftCell="A97" activePane="bottomLeft"/>
       <selection activeCell="L2" sqref="L2"/>
-      <selection pane="bottomLeft" activeCell="P10" sqref="P10"/>
+      <selection pane="bottomLeft" activeCell="G105" sqref="G105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="44.1" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1342,42 +1336,42 @@
         <v>5</v>
       </c>
       <c r="H1" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="I1" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="J1" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="J1" s="8" t="s">
-        <v>144</v>
-      </c>
       <c r="K1" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="L1" s="10" t="s">
         <v>168</v>
-      </c>
-      <c r="L1" s="10" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B2" s="11" t="s">
         <v>16</v>
       </c>
       <c r="C2" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="D2" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="E2" s="11" t="s">
         <v>146</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>147</v>
       </c>
       <c r="F2" s="11" t="s">
         <v>12</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H2" s="12">
         <v>83.6</v>
@@ -1398,25 +1392,25 @@
     </row>
     <row r="3" spans="1:13" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B3" s="13" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="D3" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="E3" s="13" t="s">
         <v>146</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>147</v>
       </c>
       <c r="F3" s="13" t="s">
         <v>71</v>
       </c>
       <c r="G3" s="13" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H3" s="12">
         <v>105.8</v>
@@ -1437,16 +1431,16 @@
     </row>
     <row r="4" spans="1:13" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B4" s="11" t="s">
         <v>16</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E4" s="11" t="s">
         <v>19</v>
@@ -1455,7 +1449,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H4" s="20">
         <v>77.03</v>
@@ -1476,16 +1470,16 @@
     </row>
     <row r="5" spans="1:13" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B5" s="13" t="s">
         <v>16</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E5" s="13" t="s">
         <v>19</v>
@@ -1494,7 +1488,7 @@
         <v>71</v>
       </c>
       <c r="G5" s="13" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H5" s="20">
         <v>13.82</v>
@@ -1515,16 +1509,16 @@
     </row>
     <row r="6" spans="1:13" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B6" s="11" t="s">
         <v>16</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E6" s="11" t="s">
         <v>19</v>
@@ -1533,7 +1527,7 @@
         <v>12</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H6" s="20">
         <v>39.61</v>
@@ -1554,16 +1548,16 @@
     </row>
     <row r="7" spans="1:13" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B7" s="13" t="s">
         <v>16</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E7" s="13" t="s">
         <v>19</v>
@@ -1572,7 +1566,7 @@
         <v>71</v>
       </c>
       <c r="G7" s="13" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H7" s="20">
         <v>17.059999999999999</v>
@@ -1593,16 +1587,16 @@
     </row>
     <row r="8" spans="1:13" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B8" s="11" t="s">
         <v>16</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E8" s="11" t="s">
         <v>21</v>
@@ -1611,7 +1605,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H8" s="20">
         <v>44.46</v>
@@ -1632,16 +1626,16 @@
     </row>
     <row r="9" spans="1:13" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B9" s="13" t="s">
         <v>16</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E9" s="13" t="s">
         <v>21</v>
@@ -1650,7 +1644,7 @@
         <v>71</v>
       </c>
       <c r="G9" s="13" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H9" s="20">
         <v>32.97</v>
@@ -1671,16 +1665,16 @@
     </row>
     <row r="10" spans="1:13" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B10" s="11" t="s">
         <v>16</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E10" s="11" t="s">
         <v>22</v>
@@ -1689,7 +1683,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H10" s="20">
         <v>11.28</v>
@@ -1710,16 +1704,16 @@
     </row>
     <row r="11" spans="1:13" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B11" s="13" t="s">
         <v>16</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E11" s="13" t="s">
         <v>22</v>
@@ -1728,7 +1722,7 @@
         <v>71</v>
       </c>
       <c r="G11" s="13" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H11" s="20">
         <v>8.9</v>
@@ -1749,16 +1743,16 @@
     </row>
     <row r="12" spans="1:13" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B12" s="11" t="s">
         <v>16</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E12" s="11" t="s">
         <v>22</v>
@@ -1767,7 +1761,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H12" s="20">
         <v>7.22</v>
@@ -1788,16 +1782,16 @@
     </row>
     <row r="13" spans="1:13" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B13" s="13" t="s">
         <v>16</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E13" s="13" t="s">
         <v>22</v>
@@ -1806,7 +1800,7 @@
         <v>71</v>
       </c>
       <c r="G13" s="13" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H13" s="20">
         <v>40.43</v>
@@ -1827,16 +1821,16 @@
     </row>
     <row r="14" spans="1:13" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B14" s="11" t="s">
         <v>16</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E14" s="11" t="s">
         <v>22</v>
@@ -1845,37 +1839,37 @@
         <v>12</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H14" s="12" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I14" s="12" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="J14" s="12" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="K14" s="12" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="L14" s="12" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="M14" s="2"/>
     </row>
     <row r="15" spans="1:13" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B15" s="13" t="s">
         <v>16</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E15" s="13" t="s">
         <v>22</v>
@@ -1884,46 +1878,46 @@
         <v>71</v>
       </c>
       <c r="G15" s="13" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H15" s="12" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I15" s="12" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="J15" s="12" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="K15" s="12" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="L15" s="12" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="M15" s="2"/>
     </row>
     <row r="16" spans="1:13" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B16" s="11" t="s">
         <v>16</v>
       </c>
       <c r="C16" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="E16" s="11" t="s">
         <v>156</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="E16" s="11" t="s">
-        <v>157</v>
       </c>
       <c r="F16" s="11" t="s">
         <v>71</v>
       </c>
       <c r="G16" s="11" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H16" s="20">
         <v>9.59</v>
@@ -1944,25 +1938,25 @@
     </row>
     <row r="17" spans="1:13" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B17" s="13" t="s">
         <v>16</v>
       </c>
       <c r="C17" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="E17" s="13" t="s">
         <v>156</v>
-      </c>
-      <c r="D17" s="13" t="s">
-        <v>146</v>
-      </c>
-      <c r="E17" s="13" t="s">
-        <v>157</v>
       </c>
       <c r="F17" s="13" t="s">
         <v>12</v>
       </c>
       <c r="G17" s="13" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H17" s="20">
         <v>5.14</v>
@@ -1983,25 +1977,25 @@
     </row>
     <row r="18" spans="1:13" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B18" s="13" t="s">
         <v>73</v>
       </c>
       <c r="C18" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="D18" s="13" t="s">
         <v>158</v>
       </c>
-      <c r="D18" s="13" t="s">
+      <c r="E18" s="13" t="s">
         <v>159</v>
-      </c>
-      <c r="E18" s="13" t="s">
-        <v>160</v>
       </c>
       <c r="F18" s="13" t="s">
         <v>12</v>
       </c>
       <c r="G18" s="13" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H18" s="20">
         <v>44.45</v>
@@ -2022,25 +2016,25 @@
     </row>
     <row r="19" spans="1:13" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B19" s="11" t="s">
         <v>73</v>
       </c>
       <c r="C19" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="D19" s="11" t="s">
         <v>158</v>
       </c>
-      <c r="D19" s="11" t="s">
+      <c r="E19" s="11" t="s">
         <v>159</v>
-      </c>
-      <c r="E19" s="11" t="s">
-        <v>160</v>
       </c>
       <c r="F19" s="11" t="s">
         <v>71</v>
       </c>
       <c r="G19" s="11" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H19" s="20">
         <v>13.97</v>
@@ -2061,25 +2055,25 @@
     </row>
     <row r="20" spans="1:13" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B20" s="13" t="s">
         <v>73</v>
       </c>
       <c r="C20" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="E20" s="13" t="s">
         <v>161</v>
-      </c>
-      <c r="D20" s="13" t="s">
-        <v>159</v>
-      </c>
-      <c r="E20" s="13" t="s">
-        <v>162</v>
       </c>
       <c r="F20" s="13" t="s">
         <v>12</v>
       </c>
       <c r="G20" s="13" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H20" s="20">
         <v>6.99</v>
@@ -2100,25 +2094,25 @@
     </row>
     <row r="21" spans="1:13" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B21" s="11" t="s">
         <v>73</v>
       </c>
       <c r="C21" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="E21" s="11" t="s">
         <v>161</v>
-      </c>
-      <c r="D21" s="11" t="s">
-        <v>159</v>
-      </c>
-      <c r="E21" s="11" t="s">
-        <v>162</v>
       </c>
       <c r="F21" s="11" t="s">
         <v>71</v>
       </c>
       <c r="G21" s="11" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H21" s="20">
         <v>13.91</v>
@@ -2172,7 +2166,7 @@
         <v>12</v>
       </c>
       <c r="G23" s="17" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H23">
         <v>1.75</v>
@@ -2211,7 +2205,7 @@
         <v>10</v>
       </c>
       <c r="G24" s="17" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H24">
         <v>4.9400000000000004</v>
@@ -2249,7 +2243,7 @@
         <v>12</v>
       </c>
       <c r="G25" s="17" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H25">
         <v>2.76</v>
@@ -2287,7 +2281,7 @@
         <v>10</v>
       </c>
       <c r="G26" s="17" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H26">
         <v>6.63</v>
@@ -2325,7 +2319,7 @@
         <v>12</v>
       </c>
       <c r="G27" s="17" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H27">
         <v>0.09</v>
@@ -2363,7 +2357,7 @@
         <v>10</v>
       </c>
       <c r="G28" s="17" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H28">
         <v>0.23</v>
@@ -2401,7 +2395,7 @@
         <v>12</v>
       </c>
       <c r="G29" s="17" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H29">
         <v>0.14000000000000001</v>
@@ -2439,7 +2433,7 @@
         <v>10</v>
       </c>
       <c r="G30" s="17" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H30">
         <v>0.28000000000000003</v>
@@ -2491,7 +2485,7 @@
         <v>20</v>
       </c>
       <c r="G32" s="14" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H32" s="3"/>
       <c r="I32" s="3"/>
@@ -2519,7 +2513,7 @@
         <v>20</v>
       </c>
       <c r="G33" s="15" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H33" s="3"/>
       <c r="I33" s="3"/>
@@ -2547,7 +2541,7 @@
         <v>20</v>
       </c>
       <c r="G34" s="14" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H34" s="3"/>
       <c r="I34" s="3"/>
@@ -2575,7 +2569,7 @@
         <v>25</v>
       </c>
       <c r="G35" s="14" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H35" s="3"/>
       <c r="I35" s="3"/>
@@ -2603,7 +2597,7 @@
         <v>25</v>
       </c>
       <c r="G36" s="15" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H36" s="3"/>
       <c r="I36" s="3"/>
@@ -2645,7 +2639,7 @@
         <v>25</v>
       </c>
       <c r="G38" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H38" s="16">
         <v>39.566800000000001</v>
@@ -2683,7 +2677,7 @@
         <v>25</v>
       </c>
       <c r="G39" s="15" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H39" s="16">
         <v>55.125399999999999</v>
@@ -2721,7 +2715,7 @@
         <v>25</v>
       </c>
       <c r="G40" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H40" s="16">
         <v>106.8917</v>
@@ -2759,7 +2753,7 @@
         <v>25</v>
       </c>
       <c r="G41" s="15" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H41" s="16">
         <v>85.545299999999997</v>
@@ -2797,7 +2791,7 @@
         <v>25</v>
       </c>
       <c r="G42" s="14" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H42" s="16">
         <v>186.45310000000001</v>
@@ -2835,7 +2829,7 @@
         <v>25</v>
       </c>
       <c r="G43" s="15" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H43" s="16">
         <v>169.64599999999999</v>
@@ -2887,7 +2881,7 @@
         <v>25</v>
       </c>
       <c r="G45" s="14" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H45" s="16">
         <v>5.0000000000000001E-4</v>
@@ -2925,7 +2919,7 @@
         <v>25</v>
       </c>
       <c r="G46" s="15" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H46" s="16">
         <v>6.7900000000000002E-2</v>
@@ -3755,7 +3749,7 @@
         <v>71</v>
       </c>
       <c r="G71" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H71">
         <v>82.5137</v>
@@ -3793,7 +3787,7 @@
         <v>71</v>
       </c>
       <c r="G72" s="15" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H72">
         <v>0</v>
@@ -3831,7 +3825,7 @@
         <v>71</v>
       </c>
       <c r="G73" s="14" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H73">
         <v>14.2857</v>
@@ -3869,7 +3863,7 @@
         <v>71</v>
       </c>
       <c r="G74" s="14" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H74">
         <v>0</v>
@@ -4811,7 +4805,7 @@
     </row>
     <row r="104" spans="1:12" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B104" s="14" t="s">
         <v>55</v>
@@ -4829,7 +4823,7 @@
         <v>71</v>
       </c>
       <c r="G104" s="14" t="s">
-        <v>128</v>
+        <v>172</v>
       </c>
       <c r="H104" s="16">
         <v>0</v>
@@ -4863,25 +4857,25 @@
     </row>
     <row r="106" spans="1:12" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B106" s="14" t="s">
         <v>6</v>
       </c>
       <c r="C106" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="D106" s="14" t="s">
         <v>130</v>
-      </c>
-      <c r="D106" s="14" t="s">
-        <v>131</v>
       </c>
       <c r="E106" s="14" t="s">
         <v>9</v>
       </c>
       <c r="F106" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="G106" s="14" t="s">
         <v>132</v>
-      </c>
-      <c r="G106" s="14" t="s">
-        <v>133</v>
       </c>
       <c r="H106" s="16">
         <v>3.5977899999999998</v>
@@ -4901,16 +4895,16 @@
     </row>
     <row r="107" spans="1:12" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B107" s="15" t="s">
         <v>6</v>
       </c>
       <c r="C107" s="15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D107" s="15" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E107" s="15" t="s">
         <v>11</v>
@@ -4919,7 +4913,7 @@
         <v>12</v>
       </c>
       <c r="G107" s="15" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H107" s="16">
         <v>8.9125999999999994</v>
@@ -4939,16 +4933,16 @@
     </row>
     <row r="108" spans="1:12" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B108" s="14" t="s">
         <v>6</v>
       </c>
       <c r="C108" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="D108" s="14" t="s">
         <v>134</v>
-      </c>
-      <c r="D108" s="14" t="s">
-        <v>135</v>
       </c>
       <c r="E108" s="14" t="s">
         <v>11</v>
@@ -4957,7 +4951,7 @@
         <v>71</v>
       </c>
       <c r="G108" s="14" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H108" s="16">
         <v>22.65165</v>
@@ -4977,16 +4971,16 @@
     </row>
     <row r="109" spans="1:12" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B109" s="15" t="s">
         <v>6</v>
       </c>
       <c r="C109" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="D109" s="15" t="s">
         <v>134</v>
-      </c>
-      <c r="D109" s="15" t="s">
-        <v>135</v>
       </c>
       <c r="E109" s="15" t="s">
         <v>9</v>
@@ -4995,7 +4989,7 @@
         <v>71</v>
       </c>
       <c r="G109" s="15" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H109" s="16">
         <v>43.417700000000004</v>
